--- a/Source code/Printer/Documentation/Calculations.xlsx
+++ b/Source code/Printer/Documentation/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\Source code\Printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D106C-59E0-4413-A956-FB338C63A3BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF5B9C-9414-4266-9BFE-B7126030E990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C438E9D9-5EC3-4182-B511-273B34480AF0}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="C4" s="1">
         <f>C3*PI()</f>
-        <v>31.415926535897931</v>
+        <v>32.044245066615886</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="C13" s="5">
         <f>C5/C4*C11*C9</f>
-        <v>1273.2395447351628</v>
+        <v>1248.274063465846</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>

--- a/Source code/Printer/Documentation/Calculations.xlsx
+++ b/Source code/Printer/Documentation/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\GitHub\Brailleprinter\Source code\Printer\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF5B9C-9414-4266-9BFE-B7126030E990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB29D0AB-6E81-4E91-A328-622AC3761A14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C438E9D9-5EC3-4182-B511-273B34480AF0}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="4">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
@@ -634,11 +634,11 @@
       </c>
       <c r="K4" s="2" t="str">
         <f>_xlfn.CONCAT("Time to move ",G3," ",H3)</f>
-        <v>Time to move 6 mm</v>
+        <v>Time to move 0,1 mm</v>
       </c>
       <c r="L4" s="1">
         <f>G3/L3</f>
-        <v>0.06</v>
+        <v>1E-3</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>5</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -783,11 +783,11 @@
       </c>
       <c r="F11" s="2" t="str">
         <f>_xlfn.CONCAT("Steps per ",ROUND(G3,2)," ",H3)</f>
-        <v>Steps per 6 mm</v>
+        <v>Steps per 0,1 mm</v>
       </c>
       <c r="G11" s="5">
         <f>G9/G7*G3</f>
-        <v>480</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
@@ -808,11 +808,11 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="str">
         <f>_xlfn.CONCAT("Steps per ",ROUND(C5,2)," ",D5)</f>
-        <v>Steps per 10 mm</v>
+        <v>Steps per 1,5 mm</v>
       </c>
       <c r="C13" s="5">
         <f>C5/C4*C11*C9</f>
-        <v>1248.274063465846</v>
+        <v>187.24110951987686</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
